--- a/ajustador_da_tabela_de_dados/001/Estoque.xlsx
+++ b/ajustador_da_tabela_de_dados/001/Estoque.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
       <selection activeCell="A245" sqref="A245"/>
@@ -500,16 +500,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0</v>
+        <v>341.64</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
@@ -554,16 +554,16 @@
         <v>1.5</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>27.14</v>
+        <v>500.74</v>
       </c>
     </row>
     <row r="5">
@@ -581,16 +581,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>713.55</v>
+        <v>727.15</v>
       </c>
     </row>
     <row r="6">
@@ -689,16 +689,16 @@
         <v>7.5</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>37.4</v>
+        <v>128.6</v>
       </c>
     </row>
     <row r="10">
@@ -716,16 +716,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>25.1</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="11">
@@ -743,16 +743,16 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>10.95</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="12">
@@ -770,16 +770,16 @@
         <v>3</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>0</v>
+        <v>110.01</v>
       </c>
     </row>
     <row r="13">
@@ -800,10 +800,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
@@ -851,16 +851,16 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -878,16 +878,16 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="17">
@@ -905,16 +905,16 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>166</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="18">
@@ -932,16 +932,16 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="F18" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="3" t="n">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="n">
-        <v>332</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19">
@@ -986,16 +986,16 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>911.5</v>
+        <v>1492.5</v>
       </c>
     </row>
     <row r="21">
@@ -1013,16 +1013,16 @@
         <v>3</v>
       </c>
       <c r="D21" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="E21" s="3" t="n">
-        <v>12</v>
-      </c>
       <c r="F21" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>1159.5</v>
+        <v>1325.5</v>
       </c>
     </row>
     <row r="22">
@@ -1040,16 +1040,16 @@
         <v>0</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -1067,16 +1067,16 @@
         <v>3</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>-2800.5</v>
+        <v>-3370.5</v>
       </c>
     </row>
     <row r="24">
@@ -1094,16 +1094,16 @@
         <v>3</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>747</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="25">
@@ -1121,16 +1121,16 @@
         <v>3</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>415</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="26">
@@ -1148,16 +1148,16 @@
         <v>3</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27">
@@ -1178,10 +1178,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>0</v>
@@ -1202,16 +1202,16 @@
         <v>4.5</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>101.6</v>
+        <v>581.1</v>
       </c>
     </row>
     <row r="29">
@@ -1229,16 +1229,16 @@
         <v>15</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-12</v>
+        <v>14</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>-441.0399999999999</v>
+        <v>-495.2199999999997</v>
       </c>
     </row>
     <row r="30">
@@ -1256,16 +1256,16 @@
         <v>15</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>564.8</v>
+        <v>1157.98</v>
       </c>
     </row>
     <row r="31">
@@ -1418,16 +1418,16 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>1166.4</v>
+        <v>2860.02</v>
       </c>
     </row>
     <row r="37">
@@ -1445,16 +1445,16 @@
         <v>15</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>0</v>
+        <v>167.96</v>
       </c>
     </row>
     <row r="38">
@@ -1502,10 +1502,10 @@
         <v>17</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>27</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>25</v>
       </c>
       <c r="E41" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F41" s="3" t="n">
         <v>8</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>17</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>1060</v>
@@ -1583,10 +1583,10 @@
         <v>35</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>1113</v>
@@ -1610,10 +1610,10 @@
         <v>28</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="n">
         <v>1060</v>
@@ -1637,10 +1637,10 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G44" s="3" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>56</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G45" s="3" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>22</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G48" s="3" t="n">
         <v>0</v>
@@ -1799,10 +1799,10 @@
         <v>15</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G50" s="3" t="n">
         <v>544</v>
@@ -1826,10 +1826,10 @@
         <v>25</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G51" s="3" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>11</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G52" s="3" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>24</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G53" s="3" t="n">
         <v>1360</v>
@@ -1934,10 +1934,10 @@
         <v>12</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="G55" s="3" t="n">
         <v>0</v>
@@ -1961,10 +1961,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G56" s="3" t="n">
         <v>139.8</v>
@@ -1988,10 +1988,10 @@
         <v>22</v>
       </c>
       <c r="E57" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F57" s="3" t="n">
         <v>8</v>
-      </c>
-      <c r="F57" s="3" t="n">
-        <v>14</v>
       </c>
       <c r="G57" s="3" t="n">
         <v>139.8</v>
@@ -2015,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" s="3" t="n">
         <v>279.6</v>
@@ -2042,10 +2042,10 @@
         <v>13</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G59" s="3" t="n">
         <v>139.8</v>
@@ -2067,10 +2067,10 @@
         <v>32</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G60" s="3" t="n">
         <v>2088</v>
@@ -2364,13 +2364,13 @@
         <v>62</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G71" s="3" t="n">
-        <v>-180</v>
+        <v>-1035</v>
       </c>
     </row>
     <row r="72">
@@ -2388,16 +2388,16 @@
         <v>15</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G72" s="3" t="n">
-        <v>-1215</v>
+        <v>-843</v>
       </c>
     </row>
     <row r="73">
@@ -2418,13 +2418,13 @@
         <v>46</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G73" s="3" t="n">
-        <v>990</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="74">
@@ -2469,16 +2469,16 @@
         <v>15</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="G75" s="3" t="n">
-        <v>-1465.1</v>
+        <v>-926.9</v>
       </c>
     </row>
     <row r="76">
@@ -2496,16 +2496,16 @@
         <v>15</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G76" s="3" t="n">
-        <v>-956.8000000000002</v>
+        <v>-568.0999999999999</v>
       </c>
     </row>
     <row r="77">
@@ -2523,16 +2523,16 @@
         <v>15</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="G77" s="3" t="n">
-        <v>-1106.3</v>
+        <v>-538.2</v>
       </c>
     </row>
     <row r="78">
@@ -2553,10 +2553,10 @@
         <v>16</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G78" s="3" t="n">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>17</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G83" s="3" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>13</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93" s="3" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G96" s="3" t="n">
         <v>0</v>
@@ -3118,10 +3118,10 @@
         <v>44</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G99" s="3" t="n">
         <v>720</v>
@@ -3172,10 +3172,10 @@
         <v>44</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G101" s="3" t="n">
         <v>2232</v>
@@ -3226,10 +3226,10 @@
         <v>39</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F103" s="3" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G103" s="3" t="n">
         <v>0</v>
@@ -3334,10 +3334,10 @@
         <v>37</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F107" s="3" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G107" s="3" t="n">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>23</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G108" s="3" t="n">
         <v>1296</v>
@@ -3415,10 +3415,10 @@
         <v>25</v>
       </c>
       <c r="E110" s="3" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G110" s="3" t="n">
         <v>1296</v>
@@ -3469,10 +3469,10 @@
         <v>25</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F112" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G112" s="3" t="n">
         <v>0</v>
@@ -3496,10 +3496,10 @@
         <v>13</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G113" s="3" t="n">
         <v>0</v>
@@ -3523,10 +3523,10 @@
         <v>7</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F114" s="3" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="G114" s="3" t="n">
         <v>0</v>
@@ -3577,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G116" s="3" t="n">
         <v>0</v>
@@ -3631,10 +3631,10 @@
         <v>88</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>22</v>
+        <v>-41</v>
       </c>
       <c r="G118" s="3" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         <v>5</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G119" s="3" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         <v>3</v>
       </c>
       <c r="E122" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G122" s="3" t="n">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>5</v>
       </c>
       <c r="E123" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G123" s="3" t="n">
         <v>0</v>
@@ -3820,10 +3820,10 @@
         <v>31</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F125" s="3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G125" s="3" t="n">
         <v>210</v>
@@ -3844,16 +3844,16 @@
         <v>3</v>
       </c>
       <c r="D126" s="3" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E126" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F126" s="3" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G126" s="3" t="n">
-        <v>160</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="127">
@@ -3901,10 +3901,10 @@
         <v>32</v>
       </c>
       <c r="E128" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F128" s="3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G128" s="3" t="n">
         <v>100.32</v>
@@ -4009,10 +4009,10 @@
         <v>9</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F132" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G132" s="3" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>3</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>800</v>
+        <v>1280</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="F133" s="3" t="n">
-        <v>673</v>
+        <v>1076</v>
       </c>
       <c r="G133" s="3" t="n">
-        <v>3213.85</v>
+        <v>5107.950000000001</v>
       </c>
     </row>
     <row r="134">
@@ -4141,16 +4141,16 @@
         <v>3</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E137" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F137" s="3" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G137" s="3" t="n">
-        <v>181.92</v>
+        <v>254.02</v>
       </c>
     </row>
     <row r="138">
@@ -4195,16 +4195,16 @@
         <v>3</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F139" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G139" s="3" t="n">
-        <v>147.03</v>
+        <v>288.62</v>
       </c>
     </row>
     <row r="140">
@@ -4387,10 +4387,10 @@
         <v>31</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F146" s="3" t="n">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="G146" s="3" t="n">
         <v>89.84999999999999</v>
@@ -4438,16 +4438,16 @@
         <v>0.15</v>
       </c>
       <c r="D148" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F148" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G148" s="3" t="n">
-        <v>0</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="149">
@@ -4468,13 +4468,13 @@
         <v>34</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F149" s="3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G149" s="3" t="n">
-        <v>61.95000000000002</v>
+        <v>45.99000000000002</v>
       </c>
     </row>
     <row r="150">
@@ -4492,16 +4492,16 @@
         <v>7.5</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="E150" s="3" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F150" s="3" t="n">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="G150" s="3" t="n">
-        <v>1932</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="151">
@@ -4519,16 +4519,16 @@
         <v>48</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F151" s="3" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G151" s="3" t="n">
-        <v>2484</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="152">
@@ -4549,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="E152" s="3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F152" s="3" t="n">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="G152" s="3" t="n">
-        <v>0</v>
+        <v>-828</v>
       </c>
     </row>
     <row r="153">
@@ -4600,16 +4600,16 @@
         <v>0.15</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>2505</v>
+        <v>3765</v>
       </c>
       <c r="E154" s="3" t="n">
-        <v>842</v>
+        <v>1251</v>
       </c>
       <c r="F154" s="3" t="n">
-        <v>1663</v>
+        <v>2514</v>
       </c>
       <c r="G154" s="3" t="n">
-        <v>196.4999999999929</v>
+        <v>1817.849999999992</v>
       </c>
     </row>
     <row r="155">
@@ -4657,10 +4657,10 @@
         <v>35</v>
       </c>
       <c r="E156" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F156" s="3" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G156" s="3" t="n">
         <v>439.8</v>
@@ -4708,16 +4708,16 @@
         <v>9</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="E158" s="3" t="n">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F158" s="3" t="n">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="G158" s="3" t="n">
-        <v>-38.39999999999999</v>
+        <v>43.49999999999999</v>
       </c>
     </row>
     <row r="159">
@@ -4873,10 +4873,10 @@
         <v>36</v>
       </c>
       <c r="E164" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F164" s="3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G164" s="3" t="n">
         <v>90</v>
@@ -4897,16 +4897,16 @@
         <v>7.5</v>
       </c>
       <c r="D165" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F165" s="3" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G165" s="3" t="n">
-        <v>980.634</v>
+        <v>1805.835</v>
       </c>
     </row>
     <row r="166">
@@ -4924,16 +4924,16 @@
         <v>3</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E166" s="3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F166" s="3" t="n">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="G166" s="3" t="n">
-        <v>0</v>
+        <v>1856.9</v>
       </c>
     </row>
     <row r="167">
@@ -4951,16 +4951,16 @@
         <v>15</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F167" s="3" t="n">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="G167" s="3" t="n">
-        <v>0</v>
+        <v>1856.9</v>
       </c>
     </row>
     <row r="168">
@@ -4978,16 +4978,16 @@
         <v>15</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F168" s="3" t="n">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="G168" s="3" t="n">
-        <v>0</v>
+        <v>1856.9</v>
       </c>
     </row>
     <row r="169">
@@ -5008,10 +5008,10 @@
         <v>13</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F169" s="3" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="G169" s="3" t="n">
         <v>0</v>
@@ -5089,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F172" s="3" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G172" s="3" t="n">
         <v>-1</v>
@@ -5248,16 +5248,16 @@
         <v>1.5</v>
       </c>
       <c r="D178" s="3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E178" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F178" s="3" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G178" s="3" t="n">
-        <v>-10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179">
@@ -5302,16 +5302,16 @@
         <v>3</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E180" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F180" s="3" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="G180" s="3" t="n">
-        <v>-24.5</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="181">
@@ -5329,16 +5329,16 @@
         <v>3</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E181" s="3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F181" s="3" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="G181" s="3" t="n">
-        <v>-17.5</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="182">
@@ -5356,16 +5356,16 @@
         <v>3</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F182" s="3" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G182" s="3" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183">
@@ -5386,10 +5386,10 @@
         <v>127</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F183" s="3" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G183" s="3" t="n">
         <v>116.31</v>
@@ -5440,10 +5440,10 @@
         <v>0</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G185" s="3" t="n">
         <v>0</v>
@@ -5492,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="E187" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F187" s="3" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G187" s="3" t="n">
         <v>0</v>
@@ -5519,10 +5519,10 @@
         <v>24</v>
       </c>
       <c r="E188" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F188" s="3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G188" s="3" t="n">
         <v>27</v>
@@ -5624,16 +5624,16 @@
         <v>3</v>
       </c>
       <c r="D192" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E192" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F192" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G192" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193">
@@ -5651,16 +5651,16 @@
         <v>3</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E193" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F193" s="3" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G193" s="3" t="n">
-        <v>258.48</v>
+        <v>388.08</v>
       </c>
     </row>
     <row r="194">
@@ -5678,16 +5678,16 @@
         <v>3</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E194" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F194" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G194" s="3" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="195">
@@ -5732,16 +5732,16 @@
         <v>0.15</v>
       </c>
       <c r="D196" s="3" t="n">
-        <v>335</v>
+        <v>485</v>
       </c>
       <c r="E196" s="3" t="n">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="F196" s="3" t="n">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="G196" s="3" t="n">
-        <v>9063.210000000001</v>
+        <v>12065.61</v>
       </c>
     </row>
     <row r="197">
@@ -5840,16 +5840,16 @@
         <v>0.15</v>
       </c>
       <c r="D200" s="3" t="n">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="F200" s="3" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="G200" s="3" t="n">
-        <v>1060.12</v>
+        <v>1450.12</v>
       </c>
     </row>
     <row r="201">
@@ -5867,16 +5867,16 @@
         <v>3</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E201" s="3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F201" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G201" s="3" t="n">
-        <v>244.375</v>
+        <v>665.2375</v>
       </c>
     </row>
     <row r="202">
@@ -5894,16 +5894,16 @@
         <v>3</v>
       </c>
       <c r="D202" s="3" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="E202" s="3" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F202" s="3" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="G202" s="3" t="n">
-        <v>3471.4</v>
+        <v>5128.9</v>
       </c>
     </row>
     <row r="203">
@@ -5921,16 +5921,16 @@
         <v>3</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E203" s="3" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F203" s="3" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G203" s="3" t="n">
-        <v>148.29</v>
+        <v>288.22</v>
       </c>
     </row>
     <row r="204">
@@ -6191,16 +6191,16 @@
         <v>3</v>
       </c>
       <c r="D213" s="3" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E213" s="3" t="n">
         <v>6</v>
       </c>
       <c r="F213" s="3" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G213" s="3" t="n">
-        <v>37.4</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="214">
@@ -6218,16 +6218,16 @@
         <v>7.5</v>
       </c>
       <c r="D214" s="3" t="n">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E214" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F214" s="3" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G214" s="3" t="n">
-        <v>36.96</v>
+        <v>110.16</v>
       </c>
     </row>
     <row r="215">
@@ -6245,16 +6245,16 @@
         <v>7.5</v>
       </c>
       <c r="D215" s="3" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E215" s="3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F215" s="3" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G215" s="3" t="n">
-        <v>223.5</v>
+        <v>670.5</v>
       </c>
     </row>
     <row r="216">
@@ -6272,16 +6272,16 @@
         <v>30</v>
       </c>
       <c r="D216" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E216" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F216" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G216" s="3" t="n">
-        <v>11.49</v>
+        <v>34.47</v>
       </c>
     </row>
     <row r="217">
@@ -6302,13 +6302,13 @@
         <v>12</v>
       </c>
       <c r="E217" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F217" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G217" s="3" t="n">
-        <v>57.2</v>
+        <v>51.48</v>
       </c>
     </row>
     <row r="218">
@@ -6380,16 +6380,16 @@
         <v>1.5</v>
       </c>
       <c r="D220" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E220" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F220" s="3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G220" s="3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="221">
@@ -6437,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="E222" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F222" s="3" t="n">
-        <v>-14</v>
+        <v>-28</v>
       </c>
       <c r="G222" s="3" t="n">
         <v>0</v>
@@ -6515,16 +6515,16 @@
         <v>1.5</v>
       </c>
       <c r="D225" s="3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E225" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F225" s="3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G225" s="3" t="n">
-        <v>195.1</v>
+        <v>294.35</v>
       </c>
     </row>
     <row r="226">
@@ -6569,16 +6569,16 @@
         <v>3</v>
       </c>
       <c r="D227" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E227" s="3" t="n">
         <v>4</v>
       </c>
       <c r="F227" s="3" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G227" s="3" t="n">
-        <v>-68.96000000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="228">
@@ -6623,16 +6623,16 @@
         <v>3</v>
       </c>
       <c r="D229" s="3" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E229" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F229" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G229" s="3" t="n">
-        <v>261.6</v>
+        <v>566.8000000000001</v>
       </c>
     </row>
     <row r="230">
@@ -6650,16 +6650,16 @@
         <v>3</v>
       </c>
       <c r="D230" s="3" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E230" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230" s="3" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G230" s="3" t="n">
-        <v>974.1600000000001</v>
+        <v>1620.66</v>
       </c>
     </row>
     <row r="231">
@@ -6677,16 +6677,16 @@
         <v>1.5</v>
       </c>
       <c r="D231" s="3" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E231" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F231" s="3" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G231" s="3" t="n">
-        <v>204</v>
+        <v>316</v>
       </c>
     </row>
     <row r="232">
@@ -6704,16 +6704,16 @@
         <v>1.5</v>
       </c>
       <c r="D232" s="3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E232" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F232" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G232" s="3" t="n">
-        <v>260.55</v>
+        <v>247.85</v>
       </c>
     </row>
     <row r="233">
@@ -6785,16 +6785,16 @@
         <v>7.5</v>
       </c>
       <c r="D235" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E235" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F235" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G235" s="3" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="236">
@@ -6812,16 +6812,16 @@
         <v>0</v>
       </c>
       <c r="D236" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E236" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F236" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G236" s="3" t="n">
-        <v>79.19</v>
+        <v>220.16</v>
       </c>
     </row>
     <row r="237">
@@ -6893,16 +6893,16 @@
         <v>48</v>
       </c>
       <c r="D239" s="3" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E239" s="3" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F239" s="3" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G239" s="3" t="n">
-        <v>-725.99</v>
+        <v>-1226.49</v>
       </c>
     </row>
     <row r="240">
@@ -7001,16 +7001,16 @@
         <v>3</v>
       </c>
       <c r="D243" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E243" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F243" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G243" s="3" t="n">
-        <v>62.25</v>
+        <v>109.45</v>
       </c>
     </row>
     <row r="244">
@@ -7109,16 +7109,16 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="248">
@@ -7136,16 +7136,16 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249">
@@ -7190,16 +7190,16 @@
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="251">
@@ -8216,16 +8216,16 @@
         <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E288" t="n">
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G288" t="n">
-        <v>89.5</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="289">
@@ -8378,16 +8378,16 @@
         <v>1</v>
       </c>
       <c r="D294" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E294" t="n">
         <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G294" t="n">
-        <v>62.04</v>
+        <v>143.64</v>
       </c>
     </row>
     <row r="295">
@@ -8459,16 +8459,16 @@
         <v>1</v>
       </c>
       <c r="D297" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
       </c>
       <c r="F297" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G297" t="n">
-        <v>28.194</v>
+        <v>112.174</v>
       </c>
     </row>
     <row r="298">
@@ -8675,16 +8675,16 @@
         <v>1</v>
       </c>
       <c r="D305" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
       </c>
       <c r="F305" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G305" t="n">
-        <v>2230</v>
+        <v>4889.98</v>
       </c>
     </row>
     <row r="306">
@@ -8766,6 +8766,708 @@
       </c>
       <c r="G308" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>BALDE DE CONCRETO 12L</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>COSINHA LIMPESA</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>4</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+      <c r="F309" t="n">
+        <v>4</v>
+      </c>
+      <c r="G309" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 36)</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>15</v>
+      </c>
+      <c r="E310" t="n">
+        <v>2</v>
+      </c>
+      <c r="F310" t="n">
+        <v>13</v>
+      </c>
+      <c r="G310" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 38)</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>15</v>
+      </c>
+      <c r="E311" t="n">
+        <v>2</v>
+      </c>
+      <c r="F311" t="n">
+        <v>13</v>
+      </c>
+      <c r="G311" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 40)</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>15</v>
+      </c>
+      <c r="E312" t="n">
+        <v>6</v>
+      </c>
+      <c r="F312" t="n">
+        <v>9</v>
+      </c>
+      <c r="G312" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 42)</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>15</v>
+      </c>
+      <c r="E313" t="n">
+        <v>10</v>
+      </c>
+      <c r="F313" t="n">
+        <v>5</v>
+      </c>
+      <c r="G313" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 44)</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="n">
+        <v>15</v>
+      </c>
+      <c r="E314" t="n">
+        <v>8</v>
+      </c>
+      <c r="F314" t="n">
+        <v>7</v>
+      </c>
+      <c r="G314" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 46)</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>15</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2</v>
+      </c>
+      <c r="F315" t="n">
+        <v>13</v>
+      </c>
+      <c r="G315" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 48)</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>15</v>
+      </c>
+      <c r="E316" t="n">
+        <v>2</v>
+      </c>
+      <c r="F316" t="n">
+        <v>13</v>
+      </c>
+      <c r="G316" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 52)</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>15</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2</v>
+      </c>
+      <c r="F317" t="n">
+        <v>13</v>
+      </c>
+      <c r="G317" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>BERMUDA OPERACIONAL (N° 56)</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>15</v>
+      </c>
+      <c r="E318" t="n">
+        <v>4</v>
+      </c>
+      <c r="F318" t="n">
+        <v>11</v>
+      </c>
+      <c r="G318" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>FILME STRETCH 500X0.025</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>OPERACIONAL</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>3187.4</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0</v>
+      </c>
+      <c r="F319" t="n">
+        <v>3187.4</v>
+      </c>
+      <c r="G319" t="n">
+        <v>44903.77</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>CAMISA VENDAS DISTRIBUIDORA (N°GG2)(FEMININA)</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>10</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>10</v>
+      </c>
+      <c r="G320" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>SAPATO PARA LIMPEZA N° 35 (CA 39848)</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+      <c r="F321" t="n">
+        <v>2</v>
+      </c>
+      <c r="G321" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>BOLA SOPRAR N7 AZUL</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>BOLA SOPRAR N7 BRANCO</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>BOLA SOPRAR N7 LARANJA</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>LAÇO PRONTO GRANDE</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>LAÇO PRONTO MEDIO</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>LAÇO PRONTO PEQUENO</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>PAPEL CREPOM AMARELO</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>PAPEL CREPOM AZUL</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>PAPEL CREPOM BRANCO</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>CUNBUCA ISOPOR</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>COSINHA COMIDA</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>PAPPEL DE PHOTO</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>TRADE</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>COLA INSTANTANEO LIQUIDO</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>CALCULADORA COM CORDA</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>ESCRITORIO</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>25</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+      <c r="F334" t="n">
+        <v>25</v>
+      </c>
+      <c r="G334" t="n">
+        <v>312.75</v>
       </c>
     </row>
   </sheetData>
